--- a/Analysis/data/raw data/older or incomplete/Veg survey totals by spp.xlsx
+++ b/Analysis/data/raw data/older or incomplete/Veg survey totals by spp.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annga\Documents\ungulate-paper\Analysis\data\raw data\older or incomplete\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="6480"/>
+    <workbookView xWindow="380" yWindow="20" windowWidth="14340" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,18 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="36">
   <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Adults</t>
-  </si>
-  <si>
-    <t>Seedlings</t>
-  </si>
-  <si>
     <t>aafb golf</t>
   </si>
   <si>
@@ -120,17 +113,28 @@
     <t>rota</t>
   </si>
   <si>
-    <t>pig density number</t>
-  </si>
-  <si>
-    <t>deer density number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>site</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>seedlings</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,6 +183,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -226,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +266,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,6 +318,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,43 +515,43 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <v>0.33333333333333337</v>
@@ -525,15 +566,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>0.44247787610619471</v>
@@ -548,15 +589,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>0.25641025641025639</v>
@@ -571,15 +612,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>1E-4</v>
@@ -594,15 +635,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1E-4</v>
@@ -617,15 +658,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>1E-4</v>
@@ -640,15 +681,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>0.71174377224199281</v>
@@ -663,15 +704,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>2.3809523809523809</v>
@@ -686,15 +727,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <v>1.3539651837524178</v>
@@ -709,15 +750,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>1.0351966873706004</v>
@@ -732,15 +773,15 @@
         <v>147</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>0.44444444444444442</v>
@@ -755,15 +796,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
       </c>
       <c r="D13">
         <v>1.1086474501108647</v>
@@ -778,15 +819,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>0.2583979328165375</v>
@@ -801,15 +842,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <v>0.78740157480314954</v>
@@ -824,15 +865,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <v>1E-4</v>
@@ -847,15 +888,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>0.18975332068311196</v>
@@ -870,15 +911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>1.1331444759206799</v>
@@ -893,15 +934,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>0.3401360544217687</v>
@@ -916,15 +957,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <v>2.083333333333333</v>
@@ -939,15 +980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>1E-4</v>
@@ -962,15 +1003,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>0.23980815347721821</v>
@@ -985,15 +1026,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>0.33333333333333337</v>
@@ -1008,15 +1049,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24">
         <v>0.44247787610619471</v>
@@ -1031,15 +1072,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>0.25641025641025639</v>
@@ -1054,15 +1095,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>1E-4</v>
@@ -1077,15 +1118,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>1E-4</v>
@@ -1100,15 +1141,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>1E-4</v>
@@ -1123,15 +1164,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>0.71174377224199281</v>
@@ -1146,15 +1187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
         <v>2.3809523809523809</v>
@@ -1169,15 +1210,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>1.3539651837524178</v>
@@ -1192,15 +1233,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D32">
         <v>1.0351966873706004</v>
@@ -1215,15 +1256,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
         <v>15</v>
-      </c>
-      <c r="C33" t="s">
-        <v>19</v>
       </c>
       <c r="D33">
         <v>0.44444444444444442</v>
@@ -1238,15 +1279,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>1.1086474501108647</v>
@@ -1261,15 +1302,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D35">
         <v>0.2583979328165375</v>
@@ -1284,15 +1325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>0.78740157480314954</v>
@@ -1307,15 +1348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>1E-4</v>
@@ -1330,15 +1371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>0.18975332068311196</v>
@@ -1353,15 +1394,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D39">
         <v>1.1331444759206799</v>
@@ -1376,15 +1417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D40">
         <v>0.3401360544217687</v>
@@ -1399,15 +1440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D41">
         <v>2.083333333333333</v>
@@ -1422,15 +1463,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>1E-4</v>
@@ -1445,15 +1486,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>0.23980815347721821</v>
@@ -1468,15 +1509,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44">
         <v>0.33333333333333337</v>
@@ -1491,15 +1532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D45">
         <v>0.44247787610619471</v>
@@ -1514,15 +1555,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>0.25641025641025639</v>
@@ -1537,15 +1578,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D47">
         <v>1E-4</v>
@@ -1560,15 +1601,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D48">
         <v>1E-4</v>
@@ -1583,15 +1624,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D49">
         <v>1E-4</v>
@@ -1606,15 +1647,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D50">
         <v>0.71174377224199281</v>
@@ -1629,15 +1670,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1">
         <v>2.3809523809523809</v>
@@ -1652,15 +1693,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D52">
         <v>1.3539651837524178</v>
@@ -1675,15 +1716,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D53">
         <v>1.0351966873706004</v>
@@ -1698,15 +1739,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D54">
         <v>0.44444444444444442</v>
@@ -1721,15 +1762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>1.1086474501108647</v>
@@ -1744,15 +1785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56" t="s">
         <v>16</v>
-      </c>
-      <c r="C56" t="s">
-        <v>20</v>
       </c>
       <c r="D56">
         <v>0.2583979328165375</v>
@@ -1767,15 +1808,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>0.78740157480314954</v>
@@ -1790,15 +1831,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>1E-4</v>
@@ -1813,15 +1854,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D59">
         <v>0.18975332068311196</v>
@@ -1836,15 +1877,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D60">
         <v>1.1331444759206799</v>
@@ -1859,15 +1900,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D61">
         <v>0.3401360544217687</v>
@@ -1882,15 +1923,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D62">
         <v>2.083333333333333</v>
@@ -1905,15 +1946,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B63" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D63">
         <v>1E-4</v>
@@ -1928,15 +1969,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64">
         <v>0.23980815347721821</v>
@@ -1951,15 +1992,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D65">
         <v>0.33333333333333337</v>
@@ -1974,15 +2015,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D66">
         <v>0.44247787610619471</v>
@@ -1997,15 +2038,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D67">
         <v>0.25641025641025639</v>
@@ -2020,15 +2061,15 @@
         <v>436</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>1E-4</v>
@@ -2043,15 +2084,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D69">
         <v>1E-4</v>
@@ -2066,15 +2107,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D70">
         <v>1E-4</v>
@@ -2089,15 +2130,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D71">
         <v>0.71174377224199281</v>
@@ -2112,15 +2153,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D72" s="1">
         <v>2.3809523809523809</v>
@@ -2135,15 +2176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D73">
         <v>1.3539651837524178</v>
@@ -2158,15 +2199,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>1.0351966873706004</v>
@@ -2181,15 +2222,15 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D75">
         <v>0.44444444444444442</v>
@@ -2204,15 +2245,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D76">
         <v>1.1086474501108647</v>
@@ -2227,15 +2268,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D77">
         <v>0.2583979328165375</v>
@@ -2250,15 +2291,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
         <v>17</v>
-      </c>
-      <c r="C78" t="s">
-        <v>21</v>
       </c>
       <c r="D78">
         <v>0.78740157480314954</v>
@@ -2273,15 +2314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C79" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D79">
         <v>1E-4</v>
@@ -2296,15 +2337,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C80" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D80">
         <v>0.18975332068311196</v>
@@ -2319,15 +2360,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>1.1331444759206799</v>
@@ -2342,15 +2383,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D82">
         <v>0.3401360544217687</v>
@@ -2365,15 +2406,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B83" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D83">
         <v>2.083333333333333</v>
@@ -2388,15 +2429,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B84" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D84">
         <v>1E-4</v>
@@ -2411,15 +2452,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D85">
         <v>0.23980815347721821</v>
@@ -2434,15 +2475,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D86">
         <v>0.33333333333333337</v>
@@ -2457,15 +2498,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D87">
         <v>0.44247787610619471</v>
@@ -2480,15 +2521,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D88">
         <v>0.25641025641025639</v>
@@ -2503,15 +2544,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D89">
         <v>1E-4</v>
@@ -2526,15 +2567,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D90">
         <v>1E-4</v>
@@ -2549,15 +2590,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D91">
         <v>1E-4</v>
@@ -2572,15 +2613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D92">
         <v>0.71174377224199281</v>
@@ -2595,15 +2636,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D93" s="1">
         <v>2.3809523809523809</v>
@@ -2618,15 +2659,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D94">
         <v>1.3539651837524178</v>
@@ -2641,15 +2682,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D95">
         <v>1.0351966873706004</v>
@@ -2664,15 +2705,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D96">
         <v>0.44444444444444442</v>
@@ -2687,15 +2728,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C97" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>1.1086474501108647</v>
@@ -2710,15 +2751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>0.2583979328165375</v>
@@ -2733,15 +2774,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D99">
         <v>0.78740157480314954</v>
@@ -2756,15 +2797,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D100">
         <v>1E-4</v>
@@ -2779,15 +2820,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C101" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>0.18975332068311196</v>
@@ -2802,15 +2843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C102" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D102">
         <v>1.1331444759206799</v>
@@ -2825,15 +2866,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B103" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C103" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>0.3401360544217687</v>
@@ -2848,15 +2889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D104">
         <v>2.083333333333333</v>
@@ -2871,15 +2912,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D105">
         <v>1E-4</v>
@@ -2894,15 +2935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D106">
         <v>0.23980815347721821</v>
@@ -2917,15 +2958,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>0.33333333333333337</v>
@@ -2940,15 +2981,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>0.44247787610619471</v>
@@ -2963,15 +3004,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C109" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D109">
         <v>0.25641025641025639</v>
@@ -2986,15 +3027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C110" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>1E-4</v>
@@ -3009,15 +3050,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D111">
         <v>1E-4</v>
@@ -3032,15 +3073,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>1E-4</v>
@@ -3055,15 +3096,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D113">
         <v>0.71174377224199281</v>
@@ -3078,15 +3119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D114" s="1">
         <v>2.3809523809523809</v>
@@ -3101,15 +3142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D115">
         <v>1.3539651837524178</v>
@@ -3124,15 +3165,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D116">
         <v>1.0351966873706004</v>
@@ -3147,15 +3188,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C117" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D117">
         <v>0.44444444444444442</v>
@@ -3170,15 +3211,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>1.1086474501108647</v>
@@ -3193,15 +3234,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C119" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D119">
         <v>0.2583979328165375</v>
@@ -3216,15 +3257,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B120" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <v>0.78740157480314954</v>
@@ -3239,15 +3280,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D121">
         <v>1E-4</v>
@@ -3262,15 +3303,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D122">
         <v>0.18975332068311196</v>
@@ -3285,15 +3326,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C123" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D123">
         <v>1.1331444759206799</v>
@@ -3308,15 +3349,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C124" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D124">
         <v>0.3401360544217687</v>
@@ -3331,15 +3372,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C125" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D125">
         <v>2.083333333333333</v>
@@ -3354,15 +3395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D126">
         <v>1E-4</v>
@@ -3377,15 +3418,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D127">
         <v>0.23980815347721821</v>
@@ -3414,7 +3455,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3426,7 +3467,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
